--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1084,10 +1096,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1131,28 +1143,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1177,28 +1189,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1472,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1507,28 +1519,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1565,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1778,10 +1790,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1825,28 +1837,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1871,28 +1883,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2067,10 +2079,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2114,28 +2126,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2160,28 +2172,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2356,10 +2368,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2403,28 +2415,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2449,28 +2461,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2645,10 +2657,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2692,28 +2704,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2738,28 +2750,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2934,10 +2946,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2981,28 +2993,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3027,28 +3039,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3252,10 +3264,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3299,28 +3311,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3357,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3541,10 +3553,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3588,28 +3600,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3634,28 +3646,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3888,10 +3900,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3935,28 +3947,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3981,28 +3993,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4206,10 +4218,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4253,28 +4265,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4299,28 +4311,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4466,10 +4478,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4513,28 +4525,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4559,28 +4571,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4697,10 +4709,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4744,28 +4756,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4790,28 +4802,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4899,10 +4911,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4946,28 +4958,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4992,28 +5004,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5130,10 +5142,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5177,28 +5189,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5223,28 +5235,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5332,10 +5344,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5379,28 +5391,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5425,28 +5437,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5563,10 +5575,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5610,28 +5622,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5656,28 +5668,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5794,10 +5806,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5841,28 +5853,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5887,28 +5899,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5996,10 +6008,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6043,28 +6055,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6089,28 +6101,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6198,10 +6210,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6245,28 +6257,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6291,28 +6303,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6371,10 +6383,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
